--- a/data/trans_bre/P45C_R1-Clase-trans_bre.xlsx
+++ b/data/trans_bre/P45C_R1-Clase-trans_bre.xlsx
@@ -668,42 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-1,86; 1,82</t>
+          <t>-1,98; 1,41</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-2,76; 1,17</t>
+          <t>-2,59; 1,5</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-0,22; 3,28</t>
+          <t>-0,24; 3,23</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-1,71; 1,16</t>
+          <t>-1,76; 1,06</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-83,88; 310,08</t>
+          <t>-82,78; 216,0</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-88,06; 176,09</t>
+          <t>-87,52; 201,29</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-63,55; —</t>
+          <t>-77,67; —</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-80,14; 224,59</t>
+          <t>-80,41; 209,52</t>
         </is>
       </c>
     </row>
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-1,14; 2,33</t>
+          <t>-1,09; 2,22</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-0,42; 3,79</t>
+          <t>-0,55; 3,73</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-1,22; 2,71</t>
+          <t>-1,04; 2,98</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-1,1; 3,44</t>
+          <t>-1,24; 3,17</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-80,77; —</t>
+          <t>-75,93; 889,5</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-44,98; 781,04</t>
+          <t>-42,72; 635,96</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-68,33; 653,06</t>
+          <t>-65,41; 686,87</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-64,77; 743,89</t>
+          <t>-66,63; 583,91</t>
         </is>
       </c>
     </row>
@@ -868,32 +868,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-2,14; 4,62</t>
+          <t>-2,13; 4,44</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-1,07; 2,78</t>
+          <t>-1,16; 2,86</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-1,34; 0,0</t>
+          <t>-1,39; 0,0</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-2,35; 2,37</t>
+          <t>-2,27; 2,83</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-60,43; 222,77</t>
+          <t>-60,92; 206,94</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-68,58; 348,9</t>
+          <t>-73,17; 315,03</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
@@ -903,7 +903,7 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-84,52; 359,47</t>
+          <t>-85,28; 336,22</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-0,58; 2,15</t>
+          <t>-0,6; 2,1</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-0,65; 1,49</t>
+          <t>-0,7; 1,45</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-0,72; 0,88</t>
+          <t>-0,73; 0,85</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-1,51; 0,74</t>
+          <t>-1,53; 0,59</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-31,83; 199,81</t>
+          <t>-33,23; 182,58</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-52,46; 200,05</t>
+          <t>-54,4; 210,53</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-71,87; 194,81</t>
+          <t>-72,47; 224,87</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-71,95; 89,02</t>
+          <t>-75,82; 65,22</t>
         </is>
       </c>
     </row>
@@ -1068,42 +1068,42 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-1,49; 1,89</t>
+          <t>-1,4; 1,87</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-1,85; 0,8</t>
+          <t>-1,87; 0,96</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-1,3; 0,99</t>
+          <t>-1,34; 1,0</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-2,41; 1,39</t>
+          <t>-2,15; 1,44</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-72,12; 320,0</t>
+          <t>-64,99; 351,58</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-73,92; 109,43</t>
+          <t>-72,31; 138,38</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-76,91; 253,73</t>
+          <t>-78,16; 200,36</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-62,86; 133,83</t>
+          <t>-60,65; 129,23</t>
         </is>
       </c>
     </row>
@@ -1168,37 +1168,37 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-2,22; 1,11</t>
+          <t>-2,23; 1,18</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-0,6; 1,95</t>
+          <t>-0,68; 1,84</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-3,89; 0,61</t>
+          <t>-3,98; 0,65</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-5,97; 0,77</t>
+          <t>-8,36; 0,73</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-77,1; 349,18</t>
+          <t>-74,01; 433,03</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-55,43; —</t>
+          <t>-50,13; —</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-84,58; 136,0</t>
+          <t>-83,92; 127,03</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
@@ -1268,42 +1268,42 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-0,68; 0,62</t>
+          <t>-0,67; 0,71</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-0,27; 0,89</t>
+          <t>-0,29; 0,86</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-0,27; 0,71</t>
+          <t>-0,31; 0,72</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-0,91; 0,48</t>
+          <t>-0,95; 0,44</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-34,07; 44,89</t>
+          <t>-33,63; 58,18</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-18,63; 84,21</t>
+          <t>-18,78; 82,83</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-23,97; 111,59</t>
+          <t>-26,66; 104,46</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-43,68; 41,97</t>
+          <t>-45,69; 37,19</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P45C_R1-Clase-trans_bre.xlsx
+++ b/data/trans_bre/P45C_R1-Clase-trans_bre.xlsx
@@ -1110,7 +1110,7 @@
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>No ha trabajado</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
